--- a/sample_excel/Brand-imp-02-name.xlsx
+++ b/sample_excel/Brand-imp-02-name.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1153">
   <si>
     <t>brand_group_id</t>
   </si>
@@ -3464,6 +3464,12 @@
   </si>
   <si>
     <t>アールティック</t>
+  </si>
+  <si>
+    <t>GeerTop</t>
+  </si>
+  <si>
+    <t>ギアトップ</t>
   </si>
 </sst>
 </file>
@@ -10097,7 +10103,15 @@
       <c r="Y584" s="6"/>
     </row>
     <row r="585">
-      <c r="A585" s="2"/>
+      <c r="A585" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2"/>

--- a/sample_excel/Brand-imp-02-name.xlsx
+++ b/sample_excel/Brand-imp-02-name.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1157">
   <si>
     <t>brand_group_id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>アボンタージ</t>
   </si>
   <si>
-    <t>A＆F</t>
+    <t>A&amp;F</t>
   </si>
   <si>
     <t>エイアンドエフ</t>
@@ -3470,13 +3470,25 @@
   </si>
   <si>
     <t>ギアトップ</t>
+  </si>
+  <si>
+    <t>Aqua Quest</t>
+  </si>
+  <si>
+    <t>アクアクエスト</t>
+  </si>
+  <si>
+    <t>STC</t>
+  </si>
+  <si>
+    <t>エスティーシー</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3489,6 +3501,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3518,7 +3534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3542,6 +3558,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10114,10 +10133,26 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="2"/>
+      <c r="A586" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B586" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="587">
-      <c r="A587" s="2"/>
+      <c r="A587" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2"/>

--- a/sample_excel/Brand-imp-02-name.xlsx
+++ b/sample_excel/Brand-imp-02-name.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Imported table-Grid view" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1170">
   <si>
     <t>brand_group_id</t>
   </si>
@@ -3482,13 +3482,52 @@
   </si>
   <si>
     <t>エスティーシー</t>
+  </si>
+  <si>
+    <t>CLAYMORE</t>
+  </si>
+  <si>
+    <t>クレイモア</t>
+  </si>
+  <si>
+    <t>albatre</t>
+  </si>
+  <si>
+    <t>アルバートル</t>
+  </si>
+  <si>
+    <t>BUSHCRAFT</t>
+  </si>
+  <si>
+    <t>ブッシュクラフト</t>
+  </si>
+  <si>
+    <t>アシモクラフト</t>
+  </si>
+  <si>
+    <t>WINDY AND RAINY</t>
+  </si>
+  <si>
+    <t>ウィンディーアンドレイニー</t>
+  </si>
+  <si>
+    <t>GORDON MILLER</t>
+  </si>
+  <si>
+    <t>ゴードンミラー</t>
+  </si>
+  <si>
+    <t>conifer cone</t>
+  </si>
+  <si>
+    <t>コニファーコーン</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3505,6 +3544,11 @@
     </font>
     <font>
       <color rgb="FF111111"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3534,7 +3578,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3562,6 +3606,9 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3571,11 +3618,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10155,25 +10202,81 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="2"/>
+      <c r="A588" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="589">
-      <c r="A589" s="2"/>
+      <c r="A589" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="590">
-      <c r="A590" s="2"/>
+      <c r="A590" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="591">
-      <c r="A591" s="2"/>
+      <c r="A591" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="592">
-      <c r="A592" s="2"/>
+      <c r="A592" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="593">
-      <c r="A593" s="2"/>
+      <c r="A593" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="594">
-      <c r="A594" s="2"/>
+      <c r="A594" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C594" s="9" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2"/>

--- a/sample_excel/Brand-imp-02-name.xlsx
+++ b/sample_excel/Brand-imp-02-name.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1188">
   <si>
     <t>brand_group_id</t>
   </si>
@@ -3521,6 +3521,60 @@
   </si>
   <si>
     <t>コニファーコーン</t>
+  </si>
+  <si>
+    <t>Oztent</t>
+  </si>
+  <si>
+    <t>オズテント</t>
+  </si>
+  <si>
+    <t>Samaya</t>
+  </si>
+  <si>
+    <t>サマヤ</t>
+  </si>
+  <si>
+    <t>WAQ</t>
+  </si>
+  <si>
+    <t>ワック</t>
+  </si>
+  <si>
+    <t>QUICK CAMP</t>
+  </si>
+  <si>
+    <t>クイックキャンプ</t>
+  </si>
+  <si>
+    <t>Kithouse</t>
+  </si>
+  <si>
+    <t>キットハウス</t>
+  </si>
+  <si>
+    <t>FLEXTAILGEAR</t>
+  </si>
+  <si>
+    <t>フレックッステイルギア</t>
+  </si>
+  <si>
+    <t>WEST VILLAGE TOKYO</t>
+  </si>
+  <si>
+    <t>ウエストビレッジトーキョー</t>
+  </si>
+  <si>
+    <t>ONETIGRIS</t>
+  </si>
+  <si>
+    <t>ワン チグリス</t>
+  </si>
+  <si>
+    <t>Wolf &amp; Grizzly</t>
+  </si>
+  <si>
+    <t>ウルフ&amp;グリズリー</t>
   </si>
 </sst>
 </file>
@@ -10279,31 +10333,103 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="2"/>
+      <c r="A595" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="596">
-      <c r="A596" s="2"/>
+      <c r="A596" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="597">
-      <c r="A597" s="2"/>
+      <c r="A597" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="598">
-      <c r="A598" s="2"/>
+      <c r="A598" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="599">
-      <c r="A599" s="2"/>
+      <c r="A599" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="600">
-      <c r="A600" s="2"/>
+      <c r="A600" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="601">
-      <c r="A601" s="2"/>
+      <c r="A601" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="602">
-      <c r="A602" s="2"/>
+      <c r="A602" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>1185</v>
+      </c>
     </row>
     <row r="603">
-      <c r="A603" s="2"/>
+      <c r="A603" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2"/>

--- a/sample_excel/Brand-imp-02-name.xlsx
+++ b/sample_excel/Brand-imp-02-name.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1192">
   <si>
     <t>brand_group_id</t>
   </si>
@@ -3575,6 +3575,18 @@
   </si>
   <si>
     <t>ウルフ&amp;グリズリー</t>
+  </si>
+  <si>
+    <t>Power ArQ</t>
+  </si>
+  <si>
+    <t>パワーアーク</t>
+  </si>
+  <si>
+    <t>Campingmoon</t>
+  </si>
+  <si>
+    <t>キャンピングムーン</t>
   </si>
 </sst>
 </file>
@@ -10432,10 +10444,26 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="2"/>
+      <c r="A604" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="605">
-      <c r="A605" s="2"/>
+      <c r="A605" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2"/>
